--- a/biology/Botanique/Cotoneaster_franchetii/Cotoneaster_franchetii.xlsx
+++ b/biology/Botanique/Cotoneaster_franchetii/Cotoneaster_franchetii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cotoneaster franchetii (Syn. Cotoneaster franchetti) (Cotonéaster de Franchet ou Cotonéastre de Franchet) est une espèce de plantes à fleurs du genre Cotoneaster et de la famille des Rosaceae, originaire du Sud-ouest de la Chine, des provinces du Guizhou, du Sichuan, du Tibet, et du Yunnan, ainsi que des parties adjacentes du Nord-ouest de la Birmanie et de la Thaïlande[1],[2].
-C'est un arbuste persistant ou semi-persistant qui peut atteindre trois mètres de haut. Les feuilles de forme ovale de 2 à 3,5 cm de long et de 1 à 1,5 cm de large, sont pointues, vert brillant au-dessus, duveteuses en dessous avec des poils denses blanchâtres à jaunâtres. Les fleurs sont regroupées de 5 à 15 en corymbes, chaque fleur de 6 à 7 mm de diamètre possédant cinq pétales blancs à l'intérieur et roses en bordure externe. Les fruits sont de petits piridions de 6 à 9 mm de diamètre ; ils sont mangés par des oiseaux frugivores, qui dispersent leurs graines dans leurs fientes[1],[3],[4].
-Deux variétés sont acceptées par quelques auteurs[4] mais non traitées comme distinctes par Flora of China[1] :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cotoneaster franchetii (Syn. Cotoneaster franchetti) (Cotonéaster de Franchet ou Cotonéastre de Franchet) est une espèce de plantes à fleurs du genre Cotoneaster et de la famille des Rosaceae, originaire du Sud-ouest de la Chine, des provinces du Guizhou, du Sichuan, du Tibet, et du Yunnan, ainsi que des parties adjacentes du Nord-ouest de la Birmanie et de la Thaïlande,.
+C'est un arbuste persistant ou semi-persistant qui peut atteindre trois mètres de haut. Les feuilles de forme ovale de 2 à 3,5 cm de long et de 1 à 1,5 cm de large, sont pointues, vert brillant au-dessus, duveteuses en dessous avec des poils denses blanchâtres à jaunâtres. Les fleurs sont regroupées de 5 à 15 en corymbes, chaque fleur de 6 à 7 mm de diamètre possédant cinq pétales blancs à l'intérieur et roses en bordure externe. Les fruits sont de petits piridions de 6 à 9 mm de diamètre ; ils sont mangés par des oiseaux frugivores, qui dispersent leurs graines dans leurs fientes.
+Deux variétés sont acceptées par quelques auteurs mais non traitées comme distinctes par Flora of China :
 Cotoneaster franchetii franchetii, décrite ci-dessus.
 Cotoneaster franchetii cinerascens Rehd : arbuste pouvant atteindre quatre mètres de haut, avec des feuilles jusqu'à 4 cm de long et regroupant 30 fleurs par corymbe.
-Quelques auteurs incluent une troisième variété, var. sternianus[2], bien qu'elle soit plus souvent traitée comme une espèce distincte Cotoneaster sternianus (Turrill)[4],[5].
+Quelques auteurs incluent une troisième variété, var. sternianus, bien qu'elle soit plus souvent traitée comme une espèce distincte Cotoneaster sternianus (Turrill),.
 </t>
         </is>
       </c>
@@ -516,11 +528,13 @@
           <t>Culture et usages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cotoneaster franchetii est une plante ornementale appréciée  en culture dans l'Europe du nord-ouest et sur la côte pacifique nord-ouest de l'Amérique du Nord. S'échappant des cultures, il s'est naturalisé en certains endroits des îles Britanniques[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cotoneaster franchetii est une plante ornementale appréciée  en culture dans l'Europe du nord-ouest et sur la côte pacifique nord-ouest de l'Amérique du Nord. S'échappant des cultures, il s'est naturalisé en certains endroits des îles Britanniques,.
 Des scientifiques de la Royal Horticultural Society (RHS) au Royaume-Uni ont mené une étude sur l'efficacité des haies pour absorber la pollution de l'air, en comparant différents types d'arbustes, notamment le cotoneaster, l'aubépine et le thuya "Western Red Cedar".
-Ils ont découvert que les variétés de cotoneaster touffues et duveteuses, comme celle-ci, sont des « super plantes » qui peuvent aider à absorber la pollution atmosphérique. Sur les routes à fort trafic, Cotoneaster franchetii dense et duveteux est au moins 20 % plus efficace pour absorber la pollution atmosphérique que d'autres arbustes souvent plantés le long des routes[6].
+Ils ont découvert que les variétés de cotoneaster touffues et duveteuses, comme celle-ci, sont des « super plantes » qui peuvent aider à absorber la pollution atmosphérique. Sur les routes à fort trafic, Cotoneaster franchetii dense et duveteux est au moins 20 % plus efficace pour absorber la pollution atmosphérique que d'autres arbustes souvent plantés le long des routes.
 </t>
         </is>
       </c>
